--- a/Final Report/Figures & Tables/Wind & PV historicaldata.xlsx
+++ b/Final Report/Figures & Tables/Wind & PV historicaldata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="wind" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="solar" sheetId="5" r:id="rId3"/>
     <sheet name="solar photo" sheetId="6" r:id="rId4"/>
     <sheet name="Day-ahead market" sheetId="7" r:id="rId5"/>
+    <sheet name="Sayfa1" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1526,6 +1527,66 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>182879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>89056</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Resim 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3048000" y="1097279"/>
+          <a:ext cx="9517380" cy="5758337"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Ofis Teması">
   <a:themeElements>
@@ -1816,7 +1877,7 @@
   <dimension ref="B2:T28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B28"/>
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4633,8 +4694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView topLeftCell="F4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5:V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6180,4 +6241,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Final Report/Figures & Tables/Wind & PV historicaldata.xlsx
+++ b/Final Report/Figures & Tables/Wind & PV historicaldata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="wind" sheetId="1" r:id="rId1"/>
@@ -1877,7 +1877,7 @@
   <dimension ref="B2:T28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="T5" sqref="T5:T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2029,6 +2029,10 @@
       <c r="R5" s="8">
         <v>9.2710000000000008</v>
       </c>
+      <c r="T5">
+        <f>Q5/1000</f>
+        <v>71.138664000000006</v>
+      </c>
     </row>
     <row r="6" spans="2:20" ht="16.95" customHeight="1">
       <c r="B6" s="9">
@@ -2082,6 +2086,10 @@
       <c r="R6" s="11">
         <v>9.02</v>
       </c>
+      <c r="T6">
+        <f t="shared" ref="T6:T28" si="0">Q6/1000</f>
+        <v>68.130060999999998</v>
+      </c>
     </row>
     <row r="7" spans="2:20" ht="16.95" customHeight="1">
       <c r="B7" s="6">
@@ -2135,6 +2143,10 @@
       <c r="R7" s="8">
         <v>9.0890000000000004</v>
       </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>68.972071</v>
+      </c>
     </row>
     <row r="8" spans="2:20" ht="16.95" customHeight="1">
       <c r="B8" s="9">
@@ -2188,6 +2200,10 @@
       <c r="R8" s="11">
         <v>9.5389999999999997</v>
       </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>74.136082000000002</v>
+      </c>
     </row>
     <row r="9" spans="2:20" ht="16.95" customHeight="1">
       <c r="B9" s="6">
@@ -2241,6 +2257,10 @@
       <c r="R9" s="8">
         <v>9.8960000000000008</v>
       </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>77.857683000000009</v>
+      </c>
     </row>
     <row r="10" spans="2:20" ht="16.95" customHeight="1">
       <c r="B10" s="9">
@@ -2294,6 +2314,10 @@
       <c r="R10" s="11">
         <v>10.131</v>
       </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>79.975279</v>
+      </c>
     </row>
     <row r="11" spans="2:20" ht="16.95" customHeight="1">
       <c r="B11" s="6">
@@ -2347,6 +2371,10 @@
       <c r="R11" s="8">
         <v>10.253</v>
       </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>81.036199999999994</v>
+      </c>
     </row>
     <row r="12" spans="2:20" ht="16.95" customHeight="1">
       <c r="B12" s="9">
@@ -2400,6 +2428,10 @@
       <c r="R12" s="11">
         <v>10.196</v>
       </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>80.584682000000001</v>
+      </c>
     </row>
     <row r="13" spans="2:20" ht="16.95" customHeight="1">
       <c r="B13" s="6">
@@ -2453,6 +2485,10 @@
       <c r="R13" s="8">
         <v>9.9979999999999993</v>
       </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>78.760550000000009</v>
+      </c>
     </row>
     <row r="14" spans="2:20" ht="16.95" customHeight="1">
       <c r="B14" s="9">
@@ -2506,6 +2542,10 @@
       <c r="R14" s="11">
         <v>10.021000000000001</v>
       </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>78.973695000000006</v>
+      </c>
     </row>
     <row r="15" spans="2:20" ht="16.95" customHeight="1">
       <c r="B15" s="6">
@@ -2559,6 +2599,10 @@
       <c r="R15" s="8">
         <v>10.284000000000001</v>
       </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>81.306589000000002</v>
+      </c>
     </row>
     <row r="16" spans="2:20" ht="16.95" customHeight="1">
       <c r="B16" s="9">
@@ -2612,8 +2656,12 @@
       <c r="R16" s="11">
         <v>10.515000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="2:18" ht="16.95" customHeight="1">
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>83.172509999999988</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" ht="16.95" customHeight="1">
       <c r="B17" s="6">
         <v>0.5</v>
       </c>
@@ -2665,8 +2713,12 @@
       <c r="R17" s="8">
         <v>11.106</v>
       </c>
-    </row>
-    <row r="18" spans="2:18" ht="16.95" customHeight="1">
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>87.300527000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" ht="16.95" customHeight="1">
       <c r="B18" s="9">
         <v>0.54166666666666663</v>
       </c>
@@ -2718,8 +2770,12 @@
       <c r="R18" s="11">
         <v>11.532</v>
       </c>
-    </row>
-    <row r="19" spans="2:18" ht="16.95" customHeight="1">
+      <c r="T18">
+        <f t="shared" si="0"/>
+        <v>89.706955000000008</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" ht="16.95" customHeight="1">
       <c r="B19" s="6">
         <v>0.58333333333333337</v>
       </c>
@@ -2771,8 +2827,12 @@
       <c r="R19" s="8">
         <v>11.616</v>
       </c>
-    </row>
-    <row r="20" spans="2:18" ht="16.95" customHeight="1">
+      <c r="T19">
+        <f t="shared" si="0"/>
+        <v>90.078552000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" ht="16.95" customHeight="1">
       <c r="B20" s="9">
         <v>0.625</v>
       </c>
@@ -2824,8 +2884,12 @@
       <c r="R20" s="11">
         <v>11.541</v>
       </c>
-    </row>
-    <row r="21" spans="2:18" ht="16.95" customHeight="1">
+      <c r="T20">
+        <f t="shared" si="0"/>
+        <v>89.703550000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" ht="16.95" customHeight="1">
       <c r="B21" s="6">
         <v>0.66666666666666663</v>
       </c>
@@ -2877,8 +2941,12 @@
       <c r="R21" s="8">
         <v>11.561</v>
       </c>
-    </row>
-    <row r="22" spans="2:18" ht="16.95" customHeight="1">
+      <c r="T21">
+        <f t="shared" si="0"/>
+        <v>89.807618000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" ht="16.95" customHeight="1">
       <c r="B22" s="9">
         <v>0.70833333333333337</v>
       </c>
@@ -2930,8 +2998,12 @@
       <c r="R22" s="11">
         <v>11.571</v>
       </c>
-    </row>
-    <row r="23" spans="2:18" ht="16.95" customHeight="1">
+      <c r="T22">
+        <f t="shared" si="0"/>
+        <v>89.85616499999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" ht="16.95" customHeight="1">
       <c r="B23" s="6">
         <v>0.75</v>
       </c>
@@ -2983,8 +3055,12 @@
       <c r="R23" s="8">
         <v>11.39</v>
       </c>
-    </row>
-    <row r="24" spans="2:18" ht="16.95" customHeight="1">
+      <c r="T23">
+        <f t="shared" si="0"/>
+        <v>88.91566499999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" ht="16.95" customHeight="1">
       <c r="B24" s="9">
         <v>0.79166666666666663</v>
       </c>
@@ -3036,8 +3112,12 @@
       <c r="R24" s="11">
         <v>11.121</v>
       </c>
-    </row>
-    <row r="25" spans="2:18" ht="16.95" customHeight="1">
+      <c r="T24">
+        <f t="shared" si="0"/>
+        <v>87.427669999999992</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" ht="16.95" customHeight="1">
       <c r="B25" s="6">
         <v>0.83333333333333337</v>
       </c>
@@ -3089,8 +3169,12 @@
       <c r="R25" s="8">
         <v>10.864000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="2:18" ht="16.95" customHeight="1">
+      <c r="T25">
+        <f t="shared" si="0"/>
+        <v>85.747873000000013</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" ht="16.95" customHeight="1">
       <c r="B26" s="9">
         <v>0.875</v>
       </c>
@@ -3142,8 +3226,12 @@
       <c r="R26" s="11">
         <v>10.686</v>
       </c>
-    </row>
-    <row r="27" spans="2:18" ht="16.95" customHeight="1">
+      <c r="T26">
+        <f t="shared" si="0"/>
+        <v>84.459467000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" ht="16.95" customHeight="1">
       <c r="B27" s="6">
         <v>0.91666666666666663</v>
       </c>
@@ -3195,8 +3283,12 @@
       <c r="R27" s="8">
         <v>10.375</v>
       </c>
-    </row>
-    <row r="28" spans="2:18" ht="16.95" customHeight="1">
+      <c r="T27">
+        <f t="shared" si="0"/>
+        <v>82.105607000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" ht="16.95" customHeight="1">
       <c r="B28" s="1">
         <v>0.95833333333333337</v>
       </c>
@@ -3247,6 +3339,10 @@
       </c>
       <c r="R28" s="3">
         <v>9.85</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="0"/>
+        <v>77.335324</v>
       </c>
     </row>
   </sheetData>
@@ -3282,10 +3378,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:R28"/>
+  <dimension ref="B3:AA28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" topLeftCell="Q3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3299,7 +3395,7 @@
     <col min="11" max="18" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" ht="30.6" customHeight="1">
+    <row r="3" spans="2:27" ht="30.6" customHeight="1">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -3336,7 +3432,7 @@
       </c>
       <c r="R3" s="38"/>
     </row>
-    <row r="4" spans="2:18" ht="28.8">
+    <row r="4" spans="2:27" ht="28.8">
       <c r="B4" s="5"/>
       <c r="C4" s="13" t="s">
         <v>1</v>
@@ -3387,7 +3483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:18">
+    <row r="5" spans="2:27">
       <c r="B5" s="6">
         <v>0</v>
       </c>
@@ -3439,8 +3535,40 @@
       <c r="R5" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:18">
+      <c r="T5">
+        <f>C5/1000</f>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f>E5/1000</f>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f t="shared" ref="V5:V28" si="0">G5/1000</f>
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f t="shared" ref="W5:W28" si="1">I5/1000</f>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f t="shared" ref="X5:X28" si="2">K5/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" ref="Y5:Y28" si="3">M5/1000</f>
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" ref="Z5:Z28" si="4">O5/1000</f>
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" ref="AA5:AA28" si="5">Q5/1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27">
       <c r="B6" s="9">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3492,8 +3620,40 @@
       <c r="R6" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:18">
+      <c r="T6">
+        <f t="shared" ref="T6:T28" si="6">C6/1000</f>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f>E6/1000</f>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27">
       <c r="B7" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -3545,8 +3705,40 @@
       <c r="R7" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:18">
+      <c r="T7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f>E7/1000</f>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27">
       <c r="B8" s="9">
         <v>0.125</v>
       </c>
@@ -3598,8 +3790,40 @@
       <c r="R8" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:18">
+      <c r="T8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f>E8/1000</f>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27">
       <c r="B9" s="6">
         <v>0.16666666666666666</v>
       </c>
@@ -3651,8 +3875,40 @@
       <c r="R9" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:18">
+      <c r="T9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f>E9/1000</f>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27">
       <c r="B10" s="9">
         <v>0.20833333333333334</v>
       </c>
@@ -3704,8 +3960,40 @@
       <c r="R10" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:18">
+      <c r="T10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f>E10/1000</f>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="1"/>
+        <v>1.3194220000000001</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27">
       <c r="B11" s="6">
         <v>0.25</v>
       </c>
@@ -3757,8 +4045,40 @@
       <c r="R11" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:18">
+      <c r="T11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f>E11/1000</f>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>1.1339359999999998</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="1"/>
+        <v>28.059453000000001</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="2"/>
+        <v>6.1318779999999995</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27">
       <c r="B12" s="9">
         <v>0.29166666666666669</v>
       </c>
@@ -3810,8 +4130,40 @@
       <c r="R12" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:18">
+      <c r="T12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f>E12/1000</f>
+        <v>1.8167850000000001</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>9.0599340000000002</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="1"/>
+        <v>55.175156999999999</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="2"/>
+        <v>32.616534999999999</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27">
       <c r="B13" s="6">
         <v>0.33333333333333331</v>
       </c>
@@ -3863,8 +4215,40 @@
       <c r="R13" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:18">
+      <c r="T13">
+        <f t="shared" si="6"/>
+        <v>0.29198299999999999</v>
+      </c>
+      <c r="U13">
+        <f>E13/1000</f>
+        <v>6.8712209999999994</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="0"/>
+        <v>19.523916</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="1"/>
+        <v>68.630187000000006</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="2"/>
+        <v>57.877970999999995</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="3"/>
+        <v>2.4623029999999999</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="4"/>
+        <v>2.6135000000000002E-2</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27">
       <c r="B14" s="9">
         <v>0.375</v>
       </c>
@@ -3916,8 +4300,40 @@
       <c r="R14" s="17">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="15" spans="2:18">
+      <c r="T14">
+        <f t="shared" si="6"/>
+        <v>5.7189230000000002</v>
+      </c>
+      <c r="U14">
+        <f>E14/1000</f>
+        <v>17.318580000000001</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>32.100078000000003</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="1"/>
+        <v>73.960698999999991</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="2"/>
+        <v>71.421408</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="3"/>
+        <v>9.6801630000000003</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="4"/>
+        <v>1.1123830000000001</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="5"/>
+        <v>0.71430100000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27">
       <c r="B15" s="6">
         <v>0.41666666666666669</v>
       </c>
@@ -3969,8 +4385,40 @@
       <c r="R15" s="15">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="16" spans="2:18">
+      <c r="T15">
+        <f t="shared" si="6"/>
+        <v>15.337419000000001</v>
+      </c>
+      <c r="U15">
+        <f>E15/1000</f>
+        <v>27.314793000000002</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="0"/>
+        <v>40.728161</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="1"/>
+        <v>75.949033999999997</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="2"/>
+        <v>78.620469</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="3"/>
+        <v>17.168831999999998</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="4"/>
+        <v>1.9935809999999998</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="5"/>
+        <v>2.8552080000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27">
       <c r="B16" s="9">
         <v>0.45833333333333331</v>
       </c>
@@ -4022,8 +4470,40 @@
       <c r="R16" s="17">
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="17" spans="2:18">
+      <c r="T16">
+        <f t="shared" si="6"/>
+        <v>43.767656000000002</v>
+      </c>
+      <c r="U16">
+        <f>E16/1000</f>
+        <v>32.821879000000003</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="0"/>
+        <v>44.094184999999996</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="1"/>
+        <v>76.473695000000006</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="2"/>
+        <v>82.635249000000002</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="3"/>
+        <v>30.349142000000001</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="4"/>
+        <v>2.4282300000000001</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="5"/>
+        <v>3.4960210000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27">
       <c r="B17" s="6">
         <v>0.5</v>
       </c>
@@ -4075,8 +4555,40 @@
       <c r="R17" s="15">
         <v>1.2E-2</v>
       </c>
-    </row>
-    <row r="18" spans="2:18">
+      <c r="T17">
+        <f t="shared" si="6"/>
+        <v>69.304444000000004</v>
+      </c>
+      <c r="U17">
+        <f>E17/1000</f>
+        <v>43.796938000000004</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="0"/>
+        <v>47.254563000000005</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="1"/>
+        <v>79.906413999999998</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="2"/>
+        <v>84.398683000000005</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="3"/>
+        <v>56.531019999999998</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="4"/>
+        <v>2.9543240000000002</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="5"/>
+        <v>5.1569880000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27">
       <c r="B18" s="9">
         <v>0.54166666666666663</v>
       </c>
@@ -4128,8 +4640,40 @@
       <c r="R18" s="17">
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="19" spans="2:18">
+      <c r="T18">
+        <f t="shared" si="6"/>
+        <v>68.046914000000001</v>
+      </c>
+      <c r="U18">
+        <f>E18/1000</f>
+        <v>53.617627999999996</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="0"/>
+        <v>48.624499999999998</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="1"/>
+        <v>82.589026000000004</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="2"/>
+        <v>85.113817999999995</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="3"/>
+        <v>75.573886000000002</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="4"/>
+        <v>3.7575449999999999</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="5"/>
+        <v>11.045928999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27">
       <c r="B19" s="6">
         <v>0.58333333333333337</v>
       </c>
@@ -4181,8 +4725,40 @@
       <c r="R19" s="15">
         <v>0.113</v>
       </c>
-    </row>
-    <row r="20" spans="2:18">
+      <c r="T19">
+        <f t="shared" si="6"/>
+        <v>58.793725999999999</v>
+      </c>
+      <c r="U19">
+        <f>E19/1000</f>
+        <v>49.577106000000001</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="0"/>
+        <v>66.037782000000007</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="1"/>
+        <v>83.392126000000005</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="2"/>
+        <v>84.351828999999995</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="3"/>
+        <v>78.800827999999996</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="4"/>
+        <v>4.9176299999999999</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="5"/>
+        <v>17.395415</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27">
       <c r="B20" s="9">
         <v>0.625</v>
       </c>
@@ -4234,8 +4810,40 @@
       <c r="R20" s="17">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="21" spans="2:18">
+      <c r="T20">
+        <f t="shared" si="6"/>
+        <v>37.387538999999997</v>
+      </c>
+      <c r="U20">
+        <f>E20/1000</f>
+        <v>40.423999000000002</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="0"/>
+        <v>65.517127000000002</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="1"/>
+        <v>80.710341</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="2"/>
+        <v>82.807878000000002</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="3"/>
+        <v>79.787168999999992</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="4"/>
+        <v>5.3634560000000002</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="5"/>
+        <v>14.964245999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27">
       <c r="B21" s="6">
         <v>0.66666666666666663</v>
       </c>
@@ -4287,8 +4895,40 @@
       <c r="R21" s="15">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="22" spans="2:18">
+      <c r="T21">
+        <f t="shared" si="6"/>
+        <v>8.8315529999999995</v>
+      </c>
+      <c r="U21">
+        <f t="shared" ref="U21:U28" si="7">E21/1000</f>
+        <v>25.787706</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="0"/>
+        <v>69.020133999999999</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="1"/>
+        <v>76.771579000000003</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="2"/>
+        <v>79.625623000000004</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="3"/>
+        <v>77.484171000000003</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="4"/>
+        <v>4.9767569999999992</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="5"/>
+        <v>0.72124999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27">
       <c r="B22" s="9">
         <v>0.70833333333333337</v>
       </c>
@@ -4340,8 +4980,40 @@
       <c r="R22" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:18">
+      <c r="T22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="7"/>
+        <v>10.674833000000001</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="0"/>
+        <v>60.238669000000002</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="1"/>
+        <v>71.310143999999994</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="2"/>
+        <v>74.116278000000008</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="3"/>
+        <v>67.067936000000003</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27">
       <c r="B23" s="6">
         <v>0.75</v>
       </c>
@@ -4393,8 +5065,40 @@
       <c r="R23" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:18">
+      <c r="T23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="7"/>
+        <v>2.1614879999999999</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="0"/>
+        <v>52.116870999999996</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="1"/>
+        <v>56.567394</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="2"/>
+        <v>64.261720999999994</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="3"/>
+        <v>43.352894999999997</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27">
       <c r="B24" s="9">
         <v>0.79166666666666663</v>
       </c>
@@ -4446,8 +5150,40 @@
       <c r="R24" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:18">
+      <c r="T24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="0"/>
+        <v>20.423694000000001</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="1"/>
+        <v>28.313547</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="2"/>
+        <v>46.923724999999997</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="3"/>
+        <v>7.9675690000000001</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27">
       <c r="B25" s="6">
         <v>0.83333333333333337</v>
       </c>
@@ -4499,8 +5235,40 @@
       <c r="R25" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:18">
+      <c r="T25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="0"/>
+        <v>6.7261030000000002</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="1"/>
+        <v>8.4068489999999994</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="2"/>
+        <v>17.515946</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27">
       <c r="B26" s="9">
         <v>0.875</v>
       </c>
@@ -4552,8 +5320,40 @@
       <c r="R26" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:18">
+      <c r="T26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="1"/>
+        <v>0.710453</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27">
       <c r="B27" s="6">
         <v>0.91666666666666663</v>
       </c>
@@ -4605,8 +5405,40 @@
       <c r="R27" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:18">
+      <c r="T27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27">
       <c r="B28" s="1">
         <v>0.95833333333333337</v>
       </c>
@@ -4656,6 +5488,38 @@
         <v>0</v>
       </c>
       <c r="R28" s="19">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6247,7 +7111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
